--- a/SuppXLS/Scen_NCAP_NUC_nasze.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_nasze.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl-my.sharepoint.com/personal/ztopolska_student_agh_edu_pl/Documents/Pliki z czatów w aplikacji Microsoft Teams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zuzia\Studia\Magisterka\WYrwa\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="11_446DF635BDFDAFFC2150A12B41B08B9C506FEAAA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3A1904E-62F8-442F-B394-007E72D5E3FC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087D8647-29EA-420F-8B36-0ED0796EB931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="46">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -86,12 +108,6 @@
     <t>UP</t>
   </si>
   <si>
-    <t>ACT_BND</t>
-  </si>
-  <si>
-    <t>MIN_BIOG-AGR</t>
-  </si>
-  <si>
     <t>Geotermia</t>
   </si>
   <si>
@@ -134,16 +150,10 @@
     <t>Ograniczenie mocy całkowitej w roku 2050</t>
   </si>
   <si>
-    <t>IMP_URAN</t>
-  </si>
-  <si>
     <t>Uran 80%</t>
   </si>
   <si>
     <t>Uran 120%</t>
-  </si>
-  <si>
-    <t>MIN_GEO</t>
   </si>
   <si>
     <t>geotermia 80%</t>
@@ -152,26 +162,47 @@
     <t>geotermia 120%</t>
   </si>
   <si>
-    <t>MIN_WIND-OFF</t>
-  </si>
-  <si>
     <t>off shore 80%</t>
   </si>
   <si>
     <t>off shore120%</t>
   </si>
   <si>
-    <t>MIN_WIND-ON</t>
+    <t>zmienic na flo_bnd</t>
   </si>
   <si>
-    <t>MIN_SOLAR</t>
+    <t>ile w kazdym roku a nie roznica</t>
+  </si>
+  <si>
+    <t>ELE_NEW_BIOG-AGR</t>
+  </si>
+  <si>
+    <t>CAP_BND</t>
+  </si>
+  <si>
+    <t>ELE_NEW_NUC_PWR</t>
+  </si>
+  <si>
+    <t>ELE_NEW_GEO</t>
+  </si>
+  <si>
+    <t>ELE_NEW_WIND-OFF</t>
+  </si>
+  <si>
+    <t>ELE_NEW_WIND-ON</t>
+  </si>
+  <si>
+    <t>ELE_NEW_PV_ROOF</t>
+  </si>
+  <si>
+    <t>ELE_NEW_NUC_SMR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -611,7 +642,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -670,6 +701,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -795,7 +829,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -833,7 +867,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -905,7 +939,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1081,25 +1115,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="8" width="2.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="18.75" customHeight="1" thickBot="1">
+    <row r="2" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1107,8 +1142,14 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="2:19" ht="15.75" thickBot="1">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1124,12 +1165,13 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="50"/>
       <c r="I3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="2:19" ht="26.25" thickBot="1">
+    <row r="4" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1167,7 +1209,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="15">
+    <row r="5" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
@@ -1199,25 +1241,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="15">
+    <row r="6" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D6" s="11">
         <v>2025</v>
       </c>
       <c r="E6">
-        <f>S8</f>
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>17</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="I6" s="32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J6" s="27">
         <v>0.1</v>
@@ -1238,25 +1280,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="15">
+    <row r="7" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D7" s="11">
         <v>2030</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E11" si="0">S9</f>
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="31" t="s">
         <v>17</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>19</v>
       </c>
       <c r="J7" s="27">
         <v>11</v>
@@ -1277,31 +1318,30 @@
         <v>20</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D8" s="11">
         <v>2035</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J8" s="27">
         <v>0</v>
@@ -1330,25 +1370,24 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="15">
+    <row r="9" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D9" s="11">
         <v>2040</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J9" s="27">
         <v>22</v>
@@ -1377,25 +1416,24 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="15">
+    <row r="10" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D10" s="11">
         <v>2045</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J10" s="38">
         <v>0.2</v>
@@ -1424,25 +1462,24 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="15.75" thickBot="1">
+    <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D11" s="11">
         <v>2050</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J11" s="28">
         <v>0</v>
@@ -1471,18 +1508,18 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="15.75" thickBot="1">
+    <row r="12" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="I12" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J12" s="29">
         <v>33.299999999999997</v>
@@ -1511,22 +1548,22 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="2:19">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D13" s="11">
         <v>2025</v>
       </c>
-      <c r="E13" s="12">
-        <f>R8</f>
+      <c r="E13" s="12" cm="1">
+        <f t="array" ref="E13:E18">E6:E11*0.8</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="R13" s="9">
         <f>O17</f>
@@ -1537,61 +1574,58 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D14" s="11">
         <v>2030</v>
       </c>
       <c r="E14" s="12">
-        <f>R9</f>
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D15" s="11">
         <v>2035</v>
       </c>
       <c r="E15" s="12">
-        <f t="shared" ref="E15:E18" si="1">R10</f>
-        <v>0.8</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D16" s="11">
         <v>2040</v>
       </c>
       <c r="E16" s="12">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J16" s="9">
         <f>J10</f>
@@ -1602,15 +1636,15 @@
         <v>0.3</v>
       </c>
       <c r="L16" s="9">
-        <f t="shared" ref="K16:N16" si="2">L10-K10</f>
+        <f t="shared" ref="L16:N16" si="0">L10-K10</f>
         <v>1</v>
       </c>
       <c r="M16" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N16" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O16" s="9">
@@ -1622,126 +1656,109 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D17" s="11">
         <v>2045</v>
       </c>
       <c r="E17" s="12">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J17" s="9">
         <f>0.8*J16</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="K17" s="9">
-        <f t="shared" ref="K17:O17" si="3">0.8*K16</f>
+        <f t="shared" ref="K17:O17" si="1">0.8*K16</f>
         <v>0.24</v>
       </c>
       <c r="L17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="M17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="N17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="O17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="2:19">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D18" s="11">
         <v>2050</v>
       </c>
       <c r="E18" s="12">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J18" s="9">
         <f>J16*1.2</f>
         <v>0.24</v>
       </c>
       <c r="K18" s="9">
-        <f t="shared" ref="K18:O18" si="4">K16*1.2</f>
+        <f t="shared" ref="K18:O18" si="2">K16*1.2</f>
         <v>0.36</v>
       </c>
       <c r="L18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
       <c r="M18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
       <c r="N18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
       <c r="O18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="2:19">
-      <c r="B19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>31</v>
-      </c>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="2:19" ht="13.5" thickBot="1">
-      <c r="B20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="6">
-        <v>2050</v>
-      </c>
-      <c r="E20" s="6">
-        <f>O10</f>
-        <v>4</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" ht="16.5" thickBot="1">
+    <row r="20" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="26" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
@@ -1750,7 +1767,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:19" ht="15.75" thickBot="1">
+    <row r="27" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>1</v>
       </c>
@@ -1771,7 +1788,7 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="2:19" ht="26.25" thickBot="1">
+    <row r="28" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
         <v>7</v>
       </c>
@@ -1809,7 +1826,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="15">
+    <row r="29" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>12</v>
       </c>
@@ -1841,25 +1858,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="15">
+    <row r="30" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D30" s="11">
         <v>2025</v>
       </c>
-      <c r="E30">
-        <f>S32</f>
+      <c r="E30" cm="1">
+        <f t="array" ref="E30:E35">TRANSPOSE(J29:O29)</f>
         <v>0</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J30" s="27">
         <v>0.1</v>
@@ -1880,25 +1897,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:19" ht="15">
+    <row r="31" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D31" s="11">
         <v>2030</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E35" si="5">S33</f>
         <v>0</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J31" s="27">
         <v>11</v>
@@ -1919,31 +1935,30 @@
         <v>20</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" ht="15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D32" s="11">
         <v>2035</v>
       </c>
       <c r="E32">
-        <f t="shared" si="5"/>
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J32" s="27">
         <v>0</v>
@@ -1972,25 +1987,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:19" ht="15">
+    <row r="33" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D33" s="11">
         <v>2040</v>
       </c>
       <c r="E33">
-        <f t="shared" si="5"/>
-        <v>3.8399999999999994</v>
+        <v>4.8</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J33" s="27">
         <v>22</v>
@@ -2019,25 +2033,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:19" ht="15">
+    <row r="34" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D34" s="11">
         <v>2045</v>
       </c>
       <c r="E34">
-        <f t="shared" si="5"/>
-        <v>3.84</v>
+        <v>8</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J34" s="27">
         <v>0.2</v>
@@ -2066,25 +2079,24 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="35" spans="2:19" ht="15.75" thickBot="1">
+    <row r="35" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D35" s="11">
         <v>2050</v>
       </c>
       <c r="E35">
-        <f t="shared" si="5"/>
-        <v>4.8</v>
+        <v>12</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I35" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J35" s="28">
         <v>0</v>
@@ -2113,18 +2125,18 @@
         <v>3.8399999999999994</v>
       </c>
     </row>
-    <row r="36" spans="2:19" ht="15.75" thickBot="1">
+    <row r="36" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="I36" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J36" s="29">
         <v>33.299999999999997</v>
@@ -2153,22 +2165,22 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="37" spans="2:19">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D37" s="11">
         <v>2025</v>
       </c>
       <c r="E37" s="12">
-        <f>R32</f>
+        <f>E30*0.8</f>
         <v>0</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R37" s="9">
         <f>O41</f>
@@ -2179,61 +2191,61 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="38" spans="2:19">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D38" s="11">
         <v>2030</v>
       </c>
       <c r="E38" s="12">
-        <f t="shared" ref="E38:E42" si="6">R33</f>
+        <f t="shared" ref="E38:E42" si="3">E31*0.8</f>
         <v>0</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D39" s="11">
         <v>2035</v>
       </c>
       <c r="E39" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.2800000000000002</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D40" s="11">
         <v>2040</v>
       </c>
       <c r="E40" s="12">
-        <f t="shared" si="6"/>
-        <v>2.56</v>
+        <f t="shared" si="3"/>
+        <v>3.84</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J40" s="9">
         <v>0</v>
@@ -2247,15 +2259,15 @@
         <v>1.6</v>
       </c>
       <c r="M40" s="9">
-        <f t="shared" ref="M40:O40" si="7">(M29-L29)</f>
+        <f t="shared" ref="M40:O40" si="4">(M29-L29)</f>
         <v>3.1999999999999997</v>
       </c>
       <c r="N40" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.2</v>
       </c>
       <c r="O40" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P40" s="37">
@@ -2263,32 +2275,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D41" s="11">
         <v>2045</v>
       </c>
       <c r="E41" s="12">
-        <f t="shared" si="6"/>
-        <v>2.5600000000000005</v>
+        <f t="shared" si="3"/>
+        <v>6.4</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J41" s="9">
         <f>0.8*J40</f>
         <v>0</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" ref="K41:O41" si="8">0.8*K40</f>
+        <f t="shared" ref="K41:O41" si="5">0.8*K40</f>
         <v>0</v>
       </c>
       <c r="L41" s="9">
@@ -2296,45 +2308,45 @@
         <v>1.2800000000000002</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2.56</v>
       </c>
       <c r="N41" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2.5600000000000005</v>
       </c>
       <c r="O41" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3.2</v>
       </c>
       <c r="P41" s="37"/>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D42" s="11">
         <v>2050</v>
       </c>
       <c r="E42" s="12">
-        <f t="shared" si="6"/>
-        <v>3.2</v>
+        <f t="shared" si="3"/>
+        <v>9.6000000000000014</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J42" s="9">
         <f>J40*1.2</f>
         <v>0</v>
       </c>
       <c r="K42" s="9">
-        <f t="shared" ref="K42:O42" si="9">K40*1.2</f>
+        <f t="shared" ref="K42:O42" si="6">K40*1.2</f>
         <v>0</v>
       </c>
       <c r="L42" s="9">
@@ -2342,49 +2354,38 @@
         <v>1.92</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>3.8399999999999994</v>
       </c>
       <c r="N42" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>3.84</v>
       </c>
       <c r="O42" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>4.8</v>
       </c>
       <c r="P42" s="37"/>
     </row>
-    <row r="43" spans="2:19">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="2:19" ht="13.5" thickBot="1">
-      <c r="B44" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="6">
-        <v>2050</v>
-      </c>
-      <c r="E44" s="6">
-        <f>O29</f>
-        <v>12</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" ht="16.5" thickBot="1">
+    <row r="44" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="6"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="35"/>
+    </row>
+    <row r="47" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3" t="s">
         <v>0</v>
       </c>
@@ -2393,7 +2394,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:19" ht="15.75" thickBot="1">
+    <row r="48" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
         <v>1</v>
       </c>
@@ -2414,7 +2415,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:19" ht="26.25" thickBot="1">
+    <row r="49" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="5" t="s">
         <v>7</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="50" spans="2:19" ht="15">
+    <row r="50" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>12</v>
       </c>
@@ -2484,25 +2485,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:19" ht="15">
+    <row r="51" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D51" s="11">
         <v>2025</v>
       </c>
-      <c r="E51" s="27">
-        <f>S53</f>
-        <v>0.12</v>
+      <c r="E51" s="27" cm="1">
+        <f t="array" ref="E51:E56">TRANSPOSE(J51:O51)</f>
+        <v>0.1</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I51" s="32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J51" s="38">
         <v>0.1</v>
@@ -2523,25 +2524,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="2:19" ht="15">
+    <row r="52" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D52" s="11">
         <v>2030</v>
       </c>
       <c r="E52" s="27">
-        <f t="shared" ref="E52:E56" si="10">S54</f>
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I52" s="31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J52" s="27">
         <v>11</v>
@@ -2570,25 +2570,24 @@
         <v>geotermia 120%</v>
       </c>
     </row>
-    <row r="53" spans="2:19" ht="15">
+    <row r="53" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D53" s="11">
         <v>2035</v>
       </c>
       <c r="E53" s="27">
-        <f t="shared" si="10"/>
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I53" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J53" s="27">
         <v>0</v>
@@ -2617,25 +2616,24 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="54" spans="2:19" ht="15">
+    <row r="54" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D54" s="11">
         <v>2040</v>
       </c>
       <c r="E54" s="27">
-        <f t="shared" si="10"/>
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I54" s="31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J54" s="27">
         <v>22</v>
@@ -2664,25 +2662,24 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="55" spans="2:19" ht="15">
+    <row r="55" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D55" s="11">
         <v>2045</v>
       </c>
       <c r="E55" s="27">
-        <f t="shared" si="10"/>
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J55" s="27">
         <v>0.2</v>
@@ -2711,25 +2708,24 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="56" spans="2:19" ht="15.75" thickBot="1">
+    <row r="56" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D56" s="11">
         <v>2050</v>
       </c>
       <c r="E56" s="27">
-        <f t="shared" si="10"/>
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I56" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J56" s="28">
         <v>0</v>
@@ -2758,18 +2754,18 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="57" spans="2:19" ht="15.75" thickBot="1">
+    <row r="57" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="I57" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J57" s="29">
         <v>33.299999999999997</v>
@@ -2798,22 +2794,22 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="58" spans="2:19">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D58" s="11">
         <v>2025</v>
       </c>
       <c r="E58" s="12">
-        <f>R53</f>
+        <f>E51*0.8</f>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R58" s="9">
         <f>O62</f>
@@ -2824,61 +2820,61 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="59" spans="2:19">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D59" s="11">
         <v>2030</v>
       </c>
       <c r="E59" s="12">
-        <f t="shared" ref="E59:E63" si="11">R54</f>
-        <v>8.0000000000000016E-2</v>
+        <f t="shared" ref="E59:E63" si="7">E52*0.8</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="F59" s="36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="2:19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D60" s="11">
         <v>2035</v>
       </c>
       <c r="E60" s="12">
-        <f t="shared" si="11"/>
-        <v>0.64000000000000012</v>
+        <f t="shared" si="7"/>
+        <v>0.8</v>
       </c>
       <c r="F60" s="36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="2:19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D61" s="11">
         <v>2040</v>
       </c>
       <c r="E61" s="12">
-        <f t="shared" si="11"/>
-        <v>0.8</v>
+        <f t="shared" si="7"/>
+        <v>1.6</v>
       </c>
       <c r="F61" s="36" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J61" s="9">
         <f>J51</f>
@@ -2889,19 +2885,19 @@
         <v>0.1</v>
       </c>
       <c r="L61" s="9">
-        <f t="shared" ref="L61:O61" si="12">L51-K51</f>
+        <f t="shared" ref="L61:O61" si="8">L51-K51</f>
         <v>0.8</v>
       </c>
       <c r="M61" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N61" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="O61" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="P61" s="37">
@@ -2909,32 +2905,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:19">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D62" s="11">
         <v>2045</v>
       </c>
       <c r="E62" s="12">
-        <f t="shared" si="11"/>
-        <v>0.4</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="F62" s="36" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J62" s="9">
         <f>0.8*J61</f>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="K62" s="9">
-        <f t="shared" ref="K62:O62" si="13">0.8*K61</f>
+        <f t="shared" ref="K62" si="9">0.8*K61</f>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="L62" s="9">
@@ -2942,45 +2938,45 @@
         <v>0.64000000000000012</v>
       </c>
       <c r="M62" s="9">
-        <f t="shared" ref="M62:Q62" si="14">0.8*M61</f>
+        <f t="shared" ref="M62:O62" si="10">0.8*M61</f>
         <v>0.8</v>
       </c>
       <c r="N62" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
       <c r="O62" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
       <c r="P62" s="37"/>
     </row>
-    <row r="63" spans="2:19">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D63" s="11">
         <v>2050</v>
       </c>
       <c r="E63" s="12">
-        <f t="shared" si="11"/>
-        <v>0.4</v>
+        <f t="shared" si="7"/>
+        <v>2.4000000000000004</v>
       </c>
       <c r="F63" s="36" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J63" s="9">
         <f>J61*1.2</f>
         <v>0.12</v>
       </c>
       <c r="K63" s="9">
-        <f t="shared" ref="K63:O63" si="15">K61*1.2</f>
+        <f t="shared" ref="K63" si="11">K61*1.2</f>
         <v>0.12</v>
       </c>
       <c r="L63" s="9">
@@ -2988,49 +2984,38 @@
         <v>0.96</v>
       </c>
       <c r="M63" s="9">
-        <f t="shared" ref="M63:Q63" si="16">M61*1.2</f>
+        <f t="shared" ref="M63:O63" si="12">M61*1.2</f>
         <v>1.2</v>
       </c>
       <c r="N63" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
       <c r="O63" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
       <c r="P63" s="37"/>
     </row>
-    <row r="64" spans="2:19">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="2:19" ht="13.5" thickBot="1">
-      <c r="B65" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="6">
-        <v>2050</v>
-      </c>
-      <c r="E65" s="6">
-        <f>O51</f>
-        <v>3</v>
-      </c>
-      <c r="F65" s="36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="2:19" ht="16.5" thickBot="1">
+    <row r="65" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="6"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="36"/>
+    </row>
+    <row r="68" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="3" t="s">
         <v>0</v>
       </c>
@@ -3039,7 +3024,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="2:19" ht="15.75" thickBot="1">
+    <row r="69" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="4" t="s">
         <v>1</v>
       </c>
@@ -3060,7 +3045,7 @@
       </c>
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="2:19" ht="26.25" thickBot="1">
+    <row r="70" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="5" t="s">
         <v>7</v>
       </c>
@@ -3098,7 +3083,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="71" spans="2:19" ht="15">
+    <row r="71" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>12</v>
       </c>
@@ -3130,25 +3115,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="2:19" ht="15">
+    <row r="72" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D72" s="11">
         <v>2025</v>
       </c>
-      <c r="E72" s="27">
-        <f>S74</f>
+      <c r="E72" s="27" cm="1">
+        <f t="array" ref="E72:E77">TRANSPOSE(J74:O74)</f>
         <v>0</v>
       </c>
       <c r="F72" s="36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I72" s="32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J72" s="27">
         <v>0.1</v>
@@ -3169,25 +3154,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:19" ht="15">
+    <row r="73" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D73" s="11">
         <v>2030</v>
       </c>
       <c r="E73" s="27">
-        <f t="shared" ref="E73:E77" si="17">S75</f>
-        <v>7.1999999999999993</v>
+        <v>6</v>
       </c>
       <c r="F73" s="36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I73" s="31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J73" s="27">
         <v>11</v>
@@ -3216,25 +3200,24 @@
         <v>off shore120%</v>
       </c>
     </row>
-    <row r="74" spans="2:19" ht="15">
+    <row r="74" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D74" s="11">
         <v>2035</v>
       </c>
       <c r="E74" s="27">
-        <f t="shared" si="17"/>
-        <v>4.8</v>
+        <v>10</v>
       </c>
       <c r="F74" s="36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I74" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J74" s="38">
         <v>0</v>
@@ -3263,25 +3246,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:19" ht="15">
+    <row r="75" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D75" s="11">
         <v>2040</v>
       </c>
       <c r="E75" s="27">
-        <f t="shared" si="17"/>
-        <v>4.8</v>
+        <v>14</v>
       </c>
       <c r="F75" s="36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I75" s="31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J75" s="27">
         <v>22</v>
@@ -3310,25 +3292,24 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="76" spans="2:19" ht="15">
+    <row r="76" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D76" s="11">
         <v>2045</v>
       </c>
       <c r="E76" s="27">
-        <f t="shared" si="17"/>
-        <v>4.8</v>
+        <v>18</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I76" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J76" s="27">
         <v>0.2</v>
@@ -3357,25 +3338,24 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="77" spans="2:19" ht="15.75" thickBot="1">
+    <row r="77" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D77" s="11">
         <v>2050</v>
       </c>
       <c r="E77" s="27">
-        <f t="shared" si="17"/>
-        <v>2.4</v>
+        <v>20</v>
       </c>
       <c r="F77" s="36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I77" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J77" s="28">
         <v>0</v>
@@ -3404,18 +3384,18 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="78" spans="2:19" ht="15.75" thickBot="1">
+    <row r="78" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B78" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="I78" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J78" s="29">
         <v>33.299999999999997</v>
@@ -3444,22 +3424,22 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="79" spans="2:19">
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D79" s="11">
         <v>2025</v>
       </c>
       <c r="E79" s="12">
-        <f>R74</f>
+        <f>E72*0.8</f>
         <v>0</v>
       </c>
       <c r="F79" s="36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R79" s="9">
         <f>O83</f>
@@ -3470,61 +3450,61 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="80" spans="2:19">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D80" s="11">
         <v>2030</v>
       </c>
       <c r="E80" s="12">
-        <f t="shared" ref="E80:E84" si="18">R75</f>
+        <f t="shared" ref="E80:E84" si="13">E73*0.8</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="F80" s="36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="2:19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B81" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D81" s="11">
         <v>2035</v>
       </c>
       <c r="E81" s="12">
-        <f t="shared" si="18"/>
-        <v>3.2</v>
+        <f t="shared" si="13"/>
+        <v>8</v>
       </c>
       <c r="F81" s="36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="82" spans="2:19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B82" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D82" s="11">
         <v>2040</v>
       </c>
       <c r="E82" s="12">
-        <f t="shared" si="18"/>
-        <v>3.2</v>
+        <f t="shared" si="13"/>
+        <v>11.200000000000001</v>
       </c>
       <c r="F82" s="36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J82" s="9">
         <f>J74</f>
@@ -3535,19 +3515,19 @@
         <v>6</v>
       </c>
       <c r="L82" s="9">
-        <f t="shared" ref="L82:O82" si="19">L74-K74</f>
+        <f t="shared" ref="L82:O82" si="14">L74-K74</f>
         <v>4</v>
       </c>
       <c r="M82" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="N82" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="O82" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="P82" s="37">
@@ -3555,32 +3535,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="2:19">
+    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B83" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D83" s="11">
         <v>2045</v>
       </c>
       <c r="E83" s="12">
-        <f t="shared" si="18"/>
-        <v>3.2</v>
+        <f t="shared" si="13"/>
+        <v>14.4</v>
       </c>
       <c r="F83" s="36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J83" s="9">
         <f>0.8*J82</f>
         <v>0</v>
       </c>
       <c r="K83" s="9">
-        <f t="shared" ref="K83:O83" si="20">0.8*K82</f>
+        <f t="shared" ref="K83" si="15">0.8*K82</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="L83" s="9">
@@ -3588,45 +3568,45 @@
         <v>3.2</v>
       </c>
       <c r="M83" s="9">
-        <f t="shared" ref="M83:Q83" si="21">0.8*M82</f>
+        <f t="shared" ref="M83:O83" si="16">0.8*M82</f>
         <v>3.2</v>
       </c>
       <c r="N83" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>3.2</v>
       </c>
       <c r="O83" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>1.6</v>
       </c>
       <c r="P83" s="37"/>
     </row>
-    <row r="84" spans="2:19">
+    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D84" s="11">
         <v>2050</v>
       </c>
       <c r="E84" s="12">
-        <f t="shared" si="18"/>
-        <v>1.6</v>
+        <f t="shared" si="13"/>
+        <v>16</v>
       </c>
       <c r="F84" s="36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J84" s="9">
         <f>J82*1.2</f>
         <v>0</v>
       </c>
       <c r="K84" s="9">
-        <f t="shared" ref="K84:O84" si="22">K82*1.2</f>
+        <f t="shared" ref="K84" si="17">K82*1.2</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="L84" s="9">
@@ -3634,49 +3614,38 @@
         <v>4.8</v>
       </c>
       <c r="M84" s="9">
-        <f t="shared" ref="M84:Q84" si="23">M82*1.2</f>
+        <f t="shared" ref="M84:O84" si="18">M82*1.2</f>
         <v>4.8</v>
       </c>
       <c r="N84" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>4.8</v>
       </c>
       <c r="O84" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2.4</v>
       </c>
       <c r="P84" s="37"/>
     </row>
-    <row r="85" spans="2:19">
+    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="2:19" ht="13.5" thickBot="1">
-      <c r="B86" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="6">
-        <v>2050</v>
-      </c>
-      <c r="E86" s="6">
-        <f>O74</f>
-        <v>20</v>
-      </c>
-      <c r="F86" s="36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="91" spans="2:19" ht="16.5" thickBot="1">
+    <row r="86" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="6"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="36"/>
+    </row>
+    <row r="91" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91" s="3" t="s">
         <v>0</v>
       </c>
@@ -3685,7 +3654,7 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="2:19" ht="15.75" thickBot="1">
+    <row r="92" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B92" s="4" t="s">
         <v>1</v>
       </c>
@@ -3706,7 +3675,7 @@
       </c>
       <c r="J92" s="8"/>
     </row>
-    <row r="93" spans="2:19" ht="26.25" thickBot="1">
+    <row r="93" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B93" s="5" t="s">
         <v>7</v>
       </c>
@@ -3744,7 +3713,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="94" spans="2:19" ht="15">
+    <row r="94" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>12</v>
       </c>
@@ -3776,25 +3745,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="2:19" ht="15">
+    <row r="95" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D95" s="11">
         <v>2025</v>
       </c>
-      <c r="E95" s="27">
-        <f>S97</f>
-        <v>13.2</v>
+      <c r="E95" s="27" cm="1">
+        <f t="array" ref="E95:E100">TRANSPOSE(J96:O96)</f>
+        <v>11</v>
       </c>
       <c r="F95" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I95" s="32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J95" s="27">
         <v>0.1</v>
@@ -3815,25 +3784,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:19" ht="15">
+    <row r="96" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D96" s="11">
         <v>2030</v>
       </c>
       <c r="E96" s="27">
-        <f t="shared" ref="E96:E100" si="24">S98</f>
-        <v>2.4</v>
+        <v>13</v>
       </c>
       <c r="F96" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I96" s="31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J96" s="38">
         <v>11</v>
@@ -3862,25 +3830,24 @@
         <v>off shore120%</v>
       </c>
     </row>
-    <row r="97" spans="2:19" ht="15">
+    <row r="97" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D97" s="11">
         <v>2035</v>
       </c>
       <c r="E97" s="27">
-        <f t="shared" si="24"/>
-        <v>3.5999999999999996</v>
+        <v>16</v>
       </c>
       <c r="F97" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I97" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J97" s="46">
         <v>0</v>
@@ -3909,25 +3876,24 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="98" spans="2:19" ht="15">
+    <row r="98" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D98" s="11">
         <v>2040</v>
       </c>
       <c r="E98" s="27">
-        <f t="shared" si="24"/>
-        <v>2.4</v>
+        <v>18</v>
       </c>
       <c r="F98" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I98" s="31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J98" s="27">
         <v>22</v>
@@ -3956,25 +3922,24 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="99" spans="2:19" ht="15">
+    <row r="99" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D99" s="11">
         <v>2045</v>
       </c>
       <c r="E99" s="27">
-        <f t="shared" si="24"/>
-        <v>1.2</v>
+        <v>19</v>
       </c>
       <c r="F99" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I99" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J99" s="27">
         <v>0.2</v>
@@ -4003,25 +3968,24 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="100" spans="2:19" ht="15.75" thickBot="1">
+    <row r="100" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D100" s="11">
         <v>2050</v>
       </c>
       <c r="E100" s="27">
-        <f t="shared" si="24"/>
-        <v>1.2</v>
+        <v>20</v>
       </c>
       <c r="F100" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I100" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J100" s="28">
         <v>0</v>
@@ -4050,18 +4014,18 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="101" spans="2:19" ht="15.75" thickBot="1">
+    <row r="101" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B101" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
       <c r="I101" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J101" s="29">
         <v>33.299999999999997</v>
@@ -4090,22 +4054,22 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="102" spans="2:19">
+    <row r="102" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B102" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D102" s="11">
         <v>2025</v>
       </c>
       <c r="E102" s="12">
-        <f>R97</f>
+        <f>E95*0.8</f>
         <v>8.8000000000000007</v>
       </c>
       <c r="F102" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R102" s="9">
         <f>O106</f>
@@ -4116,61 +4080,61 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="103" spans="2:19">
+    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B103" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D103" s="11">
         <v>2030</v>
       </c>
       <c r="E103" s="12">
-        <f t="shared" ref="E103:E107" si="25">R98</f>
-        <v>1.6</v>
+        <f t="shared" ref="E103:E107" si="19">E96*0.8</f>
+        <v>10.4</v>
       </c>
       <c r="F103" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="104" spans="2:19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B104" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D104" s="11">
         <v>2035</v>
       </c>
       <c r="E104" s="12">
-        <f t="shared" si="25"/>
-        <v>2.4000000000000004</v>
+        <f t="shared" si="19"/>
+        <v>12.8</v>
       </c>
       <c r="F104" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="105" spans="2:19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B105" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D105" s="11">
         <v>2040</v>
       </c>
       <c r="E105" s="12">
-        <f t="shared" si="25"/>
-        <v>1.6</v>
+        <f t="shared" si="19"/>
+        <v>14.4</v>
       </c>
       <c r="F105" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J105" s="9">
         <f>J96</f>
@@ -4181,19 +4145,19 @@
         <v>2</v>
       </c>
       <c r="L105" s="9">
-        <f t="shared" ref="L105:O105" si="26">L96-K96</f>
+        <f t="shared" ref="L105:O105" si="20">L96-K96</f>
         <v>3</v>
       </c>
       <c r="M105" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="N105" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O105" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P105" s="37">
@@ -4201,32 +4165,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="2:19">
+    <row r="106" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B106" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D106" s="11">
         <v>2045</v>
       </c>
       <c r="E106" s="12">
-        <f t="shared" si="25"/>
-        <v>0.8</v>
+        <f t="shared" si="19"/>
+        <v>15.200000000000001</v>
       </c>
       <c r="F106" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J106" s="9">
         <f>0.8*J105</f>
         <v>8.8000000000000007</v>
       </c>
       <c r="K106" s="9">
-        <f t="shared" ref="K106:O106" si="27">0.8*K105</f>
+        <f t="shared" ref="K106" si="21">0.8*K105</f>
         <v>1.6</v>
       </c>
       <c r="L106" s="9">
@@ -4234,45 +4198,45 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="M106" s="9">
-        <f t="shared" ref="M106:Q106" si="28">0.8*M105</f>
+        <f t="shared" ref="M106:O106" si="22">0.8*M105</f>
         <v>1.6</v>
       </c>
       <c r="N106" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0.8</v>
       </c>
       <c r="O106" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0.8</v>
       </c>
       <c r="P106" s="37"/>
     </row>
-    <row r="107" spans="2:19">
+    <row r="107" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B107" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D107" s="11">
         <v>2050</v>
       </c>
       <c r="E107" s="12">
-        <f t="shared" si="25"/>
-        <v>0.8</v>
+        <f t="shared" si="19"/>
+        <v>16</v>
       </c>
       <c r="F107" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J107" s="9">
         <f>J105*1.2</f>
         <v>13.2</v>
       </c>
       <c r="K107" s="9">
-        <f t="shared" ref="K107:O107" si="29">K105*1.2</f>
+        <f t="shared" ref="K107" si="23">K105*1.2</f>
         <v>2.4</v>
       </c>
       <c r="L107" s="9">
@@ -4280,49 +4244,38 @@
         <v>3.5999999999999996</v>
       </c>
       <c r="M107" s="9">
-        <f t="shared" ref="M107:Q107" si="30">M105*1.2</f>
+        <f t="shared" ref="M107:O107" si="24">M105*1.2</f>
         <v>2.4</v>
       </c>
       <c r="N107" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>1.2</v>
       </c>
       <c r="O107" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>1.2</v>
       </c>
       <c r="P107" s="37"/>
     </row>
-    <row r="108" spans="2:19">
+    <row r="108" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
     </row>
-    <row r="109" spans="2:19" ht="13.5" thickBot="1">
-      <c r="B109" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" s="6">
-        <v>2050</v>
-      </c>
-      <c r="E109" s="6">
-        <f>O96</f>
-        <v>20</v>
-      </c>
-      <c r="F109" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="114" spans="2:19" ht="16.5" thickBot="1">
+    <row r="109" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="6"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="36"/>
+    </row>
+    <row r="114" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B114" s="3" t="s">
         <v>0</v>
       </c>
@@ -4331,7 +4284,7 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="2:19" ht="15.75" thickBot="1">
+    <row r="115" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B115" s="4" t="s">
         <v>1</v>
       </c>
@@ -4352,7 +4305,7 @@
       </c>
       <c r="J115" s="8"/>
     </row>
-    <row r="116" spans="2:19" ht="26.25" thickBot="1">
+    <row r="116" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B116" s="5" t="s">
         <v>7</v>
       </c>
@@ -4390,7 +4343,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="117" spans="2:19" ht="15">
+    <row r="117" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
         <v>12</v>
       </c>
@@ -4422,25 +4375,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="2:19" ht="15">
+    <row r="118" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B118" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D118" s="11">
         <v>2025</v>
       </c>
-      <c r="E118" s="27">
-        <f>S120</f>
-        <v>26.4</v>
+      <c r="E118" s="27" cm="1">
+        <f t="array" ref="E118:E123">TRANSPOSE(J121:O121)</f>
+        <v>22</v>
       </c>
       <c r="F118" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I118" s="32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J118" s="27">
         <v>0.1</v>
@@ -4461,25 +4414,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="2:19" ht="15">
+    <row r="119" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B119" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D119" s="11">
         <v>2030</v>
       </c>
       <c r="E119" s="27">
-        <f t="shared" ref="E119:E123" si="31">S121</f>
-        <v>7.1999999999999993</v>
+        <v>28</v>
       </c>
       <c r="F119" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I119" s="31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J119" s="46">
         <v>11</v>
@@ -4508,25 +4460,24 @@
         <v>off shore120%</v>
       </c>
     </row>
-    <row r="120" spans="2:19" ht="15">
+    <row r="120" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B120" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D120" s="11">
         <v>2035</v>
       </c>
       <c r="E120" s="27">
-        <f t="shared" si="31"/>
-        <v>4.8</v>
+        <v>32</v>
       </c>
       <c r="F120" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I120" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J120" s="46">
         <v>0</v>
@@ -4555,25 +4506,24 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="121" spans="2:19" ht="15">
+    <row r="121" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B121" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D121" s="11">
         <v>2040</v>
       </c>
       <c r="E121" s="27">
-        <f t="shared" si="31"/>
-        <v>3.5999999999999996</v>
+        <v>35</v>
       </c>
       <c r="F121" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I121" s="31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J121" s="38">
         <v>22</v>
@@ -4602,25 +4552,24 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="122" spans="2:19" ht="15">
+    <row r="122" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B122" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D122" s="11">
         <v>2045</v>
       </c>
       <c r="E122" s="27">
-        <f t="shared" si="31"/>
-        <v>3.5999999999999996</v>
+        <v>38</v>
       </c>
       <c r="F122" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I122" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J122" s="27">
         <v>0.2</v>
@@ -4649,25 +4598,24 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="123" spans="2:19" ht="15.75" thickBot="1">
+    <row r="123" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B123" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D123" s="11">
         <v>2050</v>
       </c>
       <c r="E123" s="27">
-        <f t="shared" si="31"/>
-        <v>2.4</v>
+        <v>40</v>
       </c>
       <c r="F123" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I123" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J123" s="28">
         <v>0</v>
@@ -4696,18 +4644,18 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="124" spans="2:19" ht="15.75" thickBot="1">
+    <row r="124" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B124" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
       <c r="I124" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J124" s="29">
         <v>33.299999999999997</v>
@@ -4736,22 +4684,22 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="125" spans="2:19">
+    <row r="125" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B125" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D125" s="11">
         <v>2025</v>
       </c>
       <c r="E125" s="12">
-        <f>R120</f>
+        <f>E118*0.8</f>
         <v>17.600000000000001</v>
       </c>
       <c r="F125" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R125" s="9">
         <f>O129</f>
@@ -4762,61 +4710,61 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="126" spans="2:19">
+    <row r="126" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B126" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D126" s="11">
         <v>2030</v>
       </c>
       <c r="E126" s="12">
-        <f t="shared" ref="E126:E130" si="32">R121</f>
-        <v>4.8000000000000007</v>
+        <f t="shared" ref="E126:E130" si="25">E119*0.8</f>
+        <v>22.400000000000002</v>
       </c>
       <c r="F126" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="127" spans="2:19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B127" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D127" s="11">
         <v>2035</v>
       </c>
       <c r="E127" s="12">
-        <f t="shared" si="32"/>
-        <v>3.2</v>
+        <f t="shared" si="25"/>
+        <v>25.6</v>
       </c>
       <c r="F127" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="128" spans="2:19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B128" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D128" s="11">
         <v>2040</v>
       </c>
       <c r="E128" s="12">
-        <f t="shared" si="32"/>
-        <v>2.4000000000000004</v>
+        <f t="shared" si="25"/>
+        <v>28</v>
       </c>
       <c r="F128" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I128" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J128" s="9">
         <f>J121</f>
@@ -4827,19 +4775,19 @@
         <v>6</v>
       </c>
       <c r="L128" s="9">
-        <f t="shared" ref="L128:O128" si="33">L121-K121</f>
+        <f t="shared" ref="L128:O128" si="26">L121-K121</f>
         <v>4</v>
       </c>
       <c r="M128" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="N128" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="O128" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="P128" s="37">
@@ -4847,32 +4795,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="2:19">
+    <row r="129" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B129" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D129" s="11">
         <v>2045</v>
       </c>
       <c r="E129" s="12">
-        <f t="shared" si="32"/>
-        <v>2.4000000000000004</v>
+        <f t="shared" si="25"/>
+        <v>30.400000000000002</v>
       </c>
       <c r="F129" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J129" s="9">
         <f>0.8*J128</f>
         <v>17.600000000000001</v>
       </c>
       <c r="K129" s="9">
-        <f t="shared" ref="K129:O129" si="34">0.8*K128</f>
+        <f t="shared" ref="K129" si="27">0.8*K128</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="L129" s="9">
@@ -4880,45 +4828,45 @@
         <v>3.2</v>
       </c>
       <c r="M129" s="9">
-        <f t="shared" ref="M129:Q129" si="35">0.8*M128</f>
+        <f t="shared" ref="M129:O129" si="28">0.8*M128</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="N129" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="28"/>
         <v>2.4000000000000004</v>
       </c>
       <c r="O129" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="28"/>
         <v>1.6</v>
       </c>
       <c r="P129" s="37"/>
     </row>
-    <row r="130" spans="2:19">
+    <row r="130" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B130" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D130" s="11">
         <v>2050</v>
       </c>
       <c r="E130" s="12">
-        <f t="shared" si="32"/>
-        <v>1.6</v>
+        <f t="shared" si="25"/>
+        <v>32</v>
       </c>
       <c r="F130" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I130" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J130" s="9">
         <f>J128*1.2</f>
         <v>26.4</v>
       </c>
       <c r="K130" s="9">
-        <f t="shared" ref="K130:O130" si="36">K128*1.2</f>
+        <f t="shared" ref="K130" si="29">K128*1.2</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="L130" s="9">
@@ -4926,49 +4874,38 @@
         <v>4.8</v>
       </c>
       <c r="M130" s="9">
-        <f t="shared" ref="M130:Q130" si="37">M128*1.2</f>
+        <f t="shared" ref="M130:O130" si="30">M128*1.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="N130" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="O130" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>2.4</v>
       </c>
       <c r="P130" s="37"/>
     </row>
-    <row r="131" spans="2:19">
+    <row r="131" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
     </row>
-    <row r="132" spans="2:19" ht="13.5" thickBot="1">
-      <c r="B132" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132" s="6">
-        <v>2050</v>
-      </c>
-      <c r="E132" s="6">
-        <f>O121</f>
-        <v>40</v>
-      </c>
-      <c r="F132" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="137" spans="2:19" ht="16.5" thickBot="1">
+    <row r="132" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="6"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="36"/>
+    </row>
+    <row r="137" spans="2:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B137" s="3" t="s">
         <v>0</v>
       </c>
@@ -4977,7 +4914,7 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="2:19" ht="15.75" thickBot="1">
+    <row r="138" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B138" s="4" t="s">
         <v>1</v>
       </c>
@@ -4998,7 +4935,7 @@
       </c>
       <c r="J138" s="8"/>
     </row>
-    <row r="139" spans="2:19" ht="26.25" thickBot="1">
+    <row r="139" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B139" s="5" t="s">
         <v>7</v>
       </c>
@@ -5036,7 +4973,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="140" spans="2:19" ht="15">
+    <row r="140" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B140" s="7" t="s">
         <v>12</v>
       </c>
@@ -5068,25 +5005,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="2:19" ht="15">
+    <row r="141" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B141" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D141" s="11">
         <v>2025</v>
       </c>
-      <c r="E141" s="27">
-        <f>S143</f>
+      <c r="E141" s="27" cm="1">
+        <f t="array" ref="E141:E146">TRANSPOSE(J146:O146)</f>
         <v>0</v>
       </c>
       <c r="F141" s="36" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I141" s="32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J141" s="27">
         <v>0.1</v>
@@ -5107,25 +5044,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="2:19" ht="15">
+    <row r="142" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B142" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D142" s="11">
         <v>2030</v>
       </c>
       <c r="E142" s="27">
-        <f t="shared" ref="E142:E146" si="38">S144</f>
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="F142" s="36" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I142" s="31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J142" s="46">
         <v>11</v>
@@ -5154,25 +5090,24 @@
         <v>off shore120%</v>
       </c>
     </row>
-    <row r="143" spans="2:19" ht="15">
+    <row r="143" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B143" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D143" s="11">
         <v>2035</v>
       </c>
       <c r="E143" s="27">
-        <f t="shared" si="38"/>
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="F143" s="36" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I143" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J143" s="46">
         <v>0</v>
@@ -5201,25 +5136,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:19" ht="15">
+    <row r="144" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B144" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D144" s="11">
         <v>2040</v>
       </c>
       <c r="E144" s="27">
-        <f t="shared" si="38"/>
-        <v>1.0799999999999998</v>
+        <v>3</v>
       </c>
       <c r="F144" s="36" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I144" s="31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J144" s="46">
         <v>22</v>
@@ -5249,25 +5183,24 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="145" spans="2:19" ht="15">
+    <row r="145" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B145" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D145" s="11">
         <v>2045</v>
       </c>
       <c r="E145" s="27">
-        <f t="shared" si="38"/>
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="F145" s="36" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I145" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J145" s="46">
         <v>0.2</v>
@@ -5297,25 +5230,24 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="146" spans="2:19" ht="15.75" thickBot="1">
+    <row r="146" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B146" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D146" s="11">
         <v>2050</v>
       </c>
       <c r="E146" s="27">
-        <f t="shared" si="38"/>
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="F146" s="36" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I146" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J146" s="28">
         <v>0</v>
@@ -5344,18 +5276,18 @@
         <v>1.0799999999999998</v>
       </c>
     </row>
-    <row r="147" spans="2:19" ht="15.75" thickBot="1">
+    <row r="147" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B147" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
       <c r="I147" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J147" s="29">
         <v>33.299999999999997</v>
@@ -5384,22 +5316,22 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="148" spans="2:19">
+    <row r="148" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B148" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D148" s="11">
         <v>2025</v>
       </c>
       <c r="E148" s="12">
-        <f>R143</f>
+        <f>E141*0.8</f>
         <v>0</v>
       </c>
       <c r="F148" s="36" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="R148" s="9">
         <f>O152</f>
@@ -5410,61 +5342,61 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="149" spans="2:19">
+    <row r="149" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B149" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D149" s="11">
         <v>2030</v>
       </c>
       <c r="E149" s="12">
-        <f t="shared" ref="E149:E153" si="39">R144</f>
+        <f t="shared" ref="E149:E153" si="31">E142*0.8</f>
         <v>0.24</v>
       </c>
       <c r="F149" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="150" spans="2:19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B150" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D150" s="11">
         <v>2035</v>
       </c>
       <c r="E150" s="12">
-        <f t="shared" si="39"/>
-        <v>1.4400000000000002</v>
+        <f t="shared" si="31"/>
+        <v>1.6800000000000002</v>
       </c>
       <c r="F150" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="151" spans="2:19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B151" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D151" s="11">
         <v>2040</v>
       </c>
       <c r="E151" s="12">
-        <f t="shared" si="39"/>
-        <v>0.72</v>
+        <f t="shared" si="31"/>
+        <v>2.4000000000000004</v>
       </c>
       <c r="F151" s="36" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I151" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J151" s="9">
         <f>J146</f>
@@ -5475,19 +5407,19 @@
         <v>0.3</v>
       </c>
       <c r="L151" s="9">
-        <f t="shared" ref="L151:O151" si="40">L146-K146</f>
+        <f t="shared" ref="L151:O151" si="32">L146-K146</f>
         <v>1.8</v>
       </c>
       <c r="M151" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="N151" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>0.5</v>
       </c>
       <c r="O151" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>0.5</v>
       </c>
       <c r="P151" s="37">
@@ -5495,32 +5427,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="2:19">
+    <row r="152" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B152" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D152" s="11">
         <v>2045</v>
       </c>
       <c r="E152" s="12">
-        <f t="shared" si="39"/>
-        <v>0.4</v>
+        <f t="shared" si="31"/>
+        <v>2.8000000000000003</v>
       </c>
       <c r="F152" s="36" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J152" s="9">
         <f>0.8*J151</f>
         <v>0</v>
       </c>
       <c r="K152" s="9">
-        <f t="shared" ref="K152:O152" si="41">0.8*K151</f>
+        <f t="shared" ref="K152" si="33">0.8*K151</f>
         <v>0.24</v>
       </c>
       <c r="L152" s="9">
@@ -5528,45 +5460,45 @@
         <v>1.4400000000000002</v>
       </c>
       <c r="M152" s="9">
-        <f t="shared" ref="M152:Q152" si="42">0.8*M151</f>
+        <f t="shared" ref="M152:O152" si="34">0.8*M151</f>
         <v>0.72</v>
       </c>
       <c r="N152" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>0.4</v>
       </c>
       <c r="O152" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>0.4</v>
       </c>
       <c r="P152" s="37"/>
     </row>
-    <row r="153" spans="2:19">
+    <row r="153" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B153" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D153" s="11">
         <v>2050</v>
       </c>
       <c r="E153" s="12">
-        <f t="shared" si="39"/>
-        <v>0.4</v>
+        <f t="shared" si="31"/>
+        <v>3.2</v>
       </c>
       <c r="F153" s="36" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I153" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J153" s="9">
         <f>J151*1.2</f>
         <v>0</v>
       </c>
       <c r="K153" s="9">
-        <f t="shared" ref="K153:O153" si="43">K151*1.2</f>
+        <f t="shared" ref="K153" si="35">K151*1.2</f>
         <v>0.36</v>
       </c>
       <c r="L153" s="9">
@@ -5574,47 +5506,36 @@
         <v>2.16</v>
       </c>
       <c r="M153" s="9">
-        <f t="shared" ref="M153:Q153" si="44">M151*1.2</f>
+        <f t="shared" ref="M153:O153" si="36">M151*1.2</f>
         <v>1.0799999999999998</v>
       </c>
       <c r="N153" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>0.6</v>
       </c>
       <c r="O153" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>0.6</v>
       </c>
       <c r="P153" s="37"/>
     </row>
-    <row r="154" spans="2:19">
+    <row r="154" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
     </row>
-    <row r="155" spans="2:19" ht="13.5" thickBot="1">
-      <c r="B155" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D155" s="6">
-        <v>2050</v>
-      </c>
-      <c r="E155" s="6">
-        <f>O144</f>
-        <v>40</v>
-      </c>
-      <c r="F155" s="36" t="s">
-        <v>32</v>
-      </c>
+    <row r="155" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="6"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -5626,26 +5547,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5840,14 +5741,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC_nasze.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_nasze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zuzia\Studia\Magisterka\WYrwa\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087D8647-29EA-420F-8B36-0ED0796EB931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA405C8B-992C-4518-9D20-C0D59FCF47E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="46">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -1115,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="81" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4685,22 +4685,13 @@
       </c>
     </row>
     <row r="125" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B125" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D125" s="11">
-        <v>2025</v>
-      </c>
-      <c r="E125" s="12">
-        <f>E118*0.8</f>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F125" s="36" t="s">
-        <v>44</v>
-      </c>
+      <c r="B125" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="36"/>
       <c r="R125" s="9">
         <f>O129</f>
         <v>1.6</v>

--- a/SuppXLS/Scen_NCAP_NUC_nasze.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC_nasze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zuzia\Studia\Magisterka\WYrwa\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA405C8B-992C-4518-9D20-C0D59FCF47E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDDDE8D-1D66-4827-84B7-5F5A3431A658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="46">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -1115,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="81" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="81" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4055,22 +4055,13 @@
       </c>
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B102" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D102" s="11">
-        <v>2025</v>
-      </c>
-      <c r="E102" s="12">
-        <f>E95*0.8</f>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F102" s="36" t="s">
-        <v>43</v>
-      </c>
+      <c r="B102" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="36"/>
       <c r="R102" s="9">
         <f>O106</f>
         <v>0.8</v>
